--- a/level-2/atcoder/phase-2-1/atcoder-phase-2-1.xlsx
+++ b/level-2/atcoder/phase-2-1/atcoder-phase-2-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76277A-530C-4D03-8386-360ECF9EDEBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEEE08-C662-44C6-82FD-48A14A9471B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atcoder level 2.1" sheetId="1" r:id="rId1"/>
@@ -316,274 +316,274 @@
     <t>AtCoder Beginner Contest 185</t>
   </si>
   <si>
-    <t>https://atcoder.jp/contests/abc042/tasks/abc042_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc043/tasks/abc043_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc044/tasks/abc044_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc045/tasks/abc045_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc046/tasks/abc046_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc047/tasks/abc047_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc048/tasks/abc048_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc049/tasks/abc049_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc050/tasks/abc050_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc051/tasks/abc051_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc052/tasks/abc052_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc053/tasks/abc053_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc054/tasks/abc054_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc055/tasks/abc055_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc056/tasks/abc056_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc057/tasks/abc057_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc058/tasks/abc058_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc059/tasks/abc059_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc060/tasks/abc060_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc061/tasks/abc061_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc062/tasks/abc062_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc063/tasks/abc063_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc085/tasks/abc085_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc086/tasks/abc086_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc087/tasks/abc087_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc088/tasks/abc088_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc089/tasks/abc089_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc090/tasks/abc090_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc091/tasks/abc091_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc092/tasks/abc092_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc093/tasks/abc093_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc094/tasks/abc094_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc095/tasks/abc095_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc096/tasks/abc096_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc097/tasks/abc097_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc098/tasks/abc098_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc099/tasks/abc099_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc100/tasks/abc100_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc101/tasks/abc101_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc102/tasks/abc102_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc103/tasks/abc103_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc104/tasks/abc104_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc105/tasks/abc105_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc106/tasks/abc106_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc107/tasks/abc107_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc108/tasks/abc108_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc109/tasks/abc109_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc110/tasks/abc110_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc111/tasks/abc111_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc112/tasks/abc112_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc113/tasks/abc113_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc114/tasks/abc114_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc115/tasks/abc115_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc116/tasks/abc116_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc150/tasks/abc150_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc151/tasks/abc151_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc152/tasks/abc152_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc153/tasks/abc153_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc154/tasks/abc154_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc155/tasks/abc155_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc156/tasks/abc156_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc157/tasks/abc157_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc158/tasks/abc158_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc159/tasks/abc159_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc160/tasks/abc160_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc161/tasks/abc161_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc162/tasks/abc162_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc163/tasks/abc163_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc164/tasks/abc164_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc165/tasks/abc165_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc166/tasks/abc166_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc167/tasks/abc167_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc168/tasks/abc168_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc169/tasks/abc169_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc170/tasks/abc170_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc171/tasks/abc171_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc172/tasks/abc172_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc173/tasks/abc173_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc174/tasks/abc174_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc175/tasks/abc175_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc176/tasks/abc176_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc177/tasks/abc177_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc178/tasks/abc178_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc179/tasks/abc179_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc180/tasks/abc180_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc181/tasks/abc181_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc182/tasks/abc182_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc183/tasks/abc183_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc184/tasks/abc184_b</t>
-  </si>
-  <si>
-    <t>https://atcoder.jp/contests/abc185/tasks/abc185_b</t>
+    <t>https://atcoder.jp/contests/abc042/tasks/abc042_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc043/tasks/abc043_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc044/tasks/abc044_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc045/tasks/abc045_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc046/tasks/abc046_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc047/tasks/abc047_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc048/tasks/abc048_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc049/tasks/abc049_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc050/tasks/abc050_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc051/tasks/abc051_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc052/tasks/abc052_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc053/tasks/abc053_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc054/tasks/abc054_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc055/tasks/abc055_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc056/tasks/abc056_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc057/tasks/abc057_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc058/tasks/abc058_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc059/tasks/abc059_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc060/tasks/abc060_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc061/tasks/abc061_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc062/tasks/abc062_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc063/tasks/abc063_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc085/tasks/abc085_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc086/tasks/abc086_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc087/tasks/abc087_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc088/tasks/abc088_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc089/tasks/abc089_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc090/tasks/abc090_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc091/tasks/abc091_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc092/tasks/abc092_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc093/tasks/abc093_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc094/tasks/abc094_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc095/tasks/abc095_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc096/tasks/abc096_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc097/tasks/abc097_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc098/tasks/abc098_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc099/tasks/abc099_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc100/tasks/abc100_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc101/tasks/abc101_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc102/tasks/abc102_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc103/tasks/abc103_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc104/tasks/abc104_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc105/tasks/abc105_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc106/tasks/abc106_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc107/tasks/abc107_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc108/tasks/abc108_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc109/tasks/abc109_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc110/tasks/abc110_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc111/tasks/abc111_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc112/tasks/abc112_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc113/tasks/abc113_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc114/tasks/abc114_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc115/tasks/abc115_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc116/tasks/abc116_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc150/tasks/abc150_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc151/tasks/abc151_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc152/tasks/abc152_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc153/tasks/abc153_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc154/tasks/abc154_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc155/tasks/abc155_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc156/tasks/abc156_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc157/tasks/abc157_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc158/tasks/abc158_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc159/tasks/abc159_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc160/tasks/abc160_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc161/tasks/abc161_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc162/tasks/abc162_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc163/tasks/abc163_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc164/tasks/abc164_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc165/tasks/abc165_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc166/tasks/abc166_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc167/tasks/abc167_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc168/tasks/abc168_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc169/tasks/abc169_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc170/tasks/abc170_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc171/tasks/abc171_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc172/tasks/abc172_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc173/tasks/abc173_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc174/tasks/abc174_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc175/tasks/abc175_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc176/tasks/abc176_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc177/tasks/abc177_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc178/tasks/abc178_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc179/tasks/abc179_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc180/tasks/abc180_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc181/tasks/abc181_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc182/tasks/abc182_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc183/tasks/abc183_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc184/tasks/abc184_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc185/tasks/abc185_a</t>
   </si>
 </sst>
 </file>

--- a/level-2/atcoder/phase-2-1/atcoder-phase-2-1.xlsx
+++ b/level-2/atcoder/phase-2-1/atcoder-phase-2-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEEE08-C662-44C6-82FD-48A14A9471B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AED759-1011-4E47-B8FE-9689A6615D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="278">
   <si>
     <t>Contest Link</t>
   </si>
@@ -584,6 +584,276 @@
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc185/tasks/abc185_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc042/tasks/abc042_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc043/tasks/abc043_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc044/tasks/abc044_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc045/tasks/abc045_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc046/tasks/abc046_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc047/tasks/abc047_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc048/tasks/abc048_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc049/tasks/abc049_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc050/tasks/abc050_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc051/tasks/abc051_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc052/tasks/abc052_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc053/tasks/abc053_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc054/tasks/abc054_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc055/tasks/abc055_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc056/tasks/abc056_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc057/tasks/abc057_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc058/tasks/abc058_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc059/tasks/abc059_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc060/tasks/abc060_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc061/tasks/abc061_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc062/tasks/abc062_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc063/tasks/abc063_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc085/tasks/abc085_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc086/tasks/abc086_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc087/tasks/abc087_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc088/tasks/abc088_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc089/tasks/abc089_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc090/tasks/abc090_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc091/tasks/abc091_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc092/tasks/abc092_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc093/tasks/abc093_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc094/tasks/abc094_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc095/tasks/abc095_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc096/tasks/abc096_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc097/tasks/abc097_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc098/tasks/abc098_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc099/tasks/abc099_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc100/tasks/abc100_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc101/tasks/abc101_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc102/tasks/abc102_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc103/tasks/abc103_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc104/tasks/abc104_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc105/tasks/abc105_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc106/tasks/abc106_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc107/tasks/abc107_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc108/tasks/abc108_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc109/tasks/abc109_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc110/tasks/abc110_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc111/tasks/abc111_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc112/tasks/abc112_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc113/tasks/abc113_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc114/tasks/abc114_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc115/tasks/abc115_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc116/tasks/abc116_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc150/tasks/abc150_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc151/tasks/abc151_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc152/tasks/abc152_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc153/tasks/abc153_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc154/tasks/abc154_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc155/tasks/abc155_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc156/tasks/abc156_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc157/tasks/abc157_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc158/tasks/abc158_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc159/tasks/abc159_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc160/tasks/abc160_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc161/tasks/abc161_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc162/tasks/abc162_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc163/tasks/abc163_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc164/tasks/abc164_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc165/tasks/abc165_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc166/tasks/abc166_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc167/tasks/abc167_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc168/tasks/abc168_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc169/tasks/abc169_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc170/tasks/abc170_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc171/tasks/abc171_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc172/tasks/abc172_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc173/tasks/abc173_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc174/tasks/abc174_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc175/tasks/abc175_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc176/tasks/abc176_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc177/tasks/abc177_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc178/tasks/abc178_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc179/tasks/abc179_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc180/tasks/abc180_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc181/tasks/abc181_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc182/tasks/abc182_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc183/tasks/abc183_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc184/tasks/abc184_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc185/tasks/abc185_b</t>
   </si>
 </sst>
 </file>
@@ -730,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,12 +1047,361 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1493,7 +2112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1538,7 +2157,7 @@
       <c r="A2" s="17"/>
       <c r="B2" s="3">
         <f>COUNTA(B3:B778)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C2" s="7" t="e">
         <f t="shared" ref="C2:H2" si="0">AVERAGE(C3:C95)</f>
@@ -2483,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>62</v>
       </c>
@@ -2496,11 +3115,11 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8">
-        <f t="shared" ref="H57:H92" si="4">SUM(C57:G57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H57:H120" si="4">SUM(C57:G57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>63</v>
       </c>
@@ -2517,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>64</v>
       </c>
@@ -2534,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>65</v>
       </c>
@@ -2551,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>67</v>
       </c>
@@ -2585,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
@@ -2602,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>69</v>
       </c>
@@ -2619,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>70</v>
       </c>
@@ -2636,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>71</v>
       </c>
@@ -2653,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>72</v>
       </c>
@@ -2670,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>73</v>
       </c>
@@ -2687,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>74</v>
       </c>
@@ -2704,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>75</v>
       </c>
@@ -2721,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>76</v>
       </c>
@@ -2738,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>77</v>
       </c>
@@ -2755,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>78</v>
       </c>
@@ -2772,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>79</v>
       </c>
@@ -2789,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>80</v>
       </c>
@@ -2806,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>81</v>
       </c>
@@ -2823,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>82</v>
       </c>
@@ -2840,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>83</v>
       </c>
@@ -2857,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>84</v>
       </c>
@@ -2874,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>85</v>
       </c>
@@ -2891,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>86</v>
       </c>
@@ -2908,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>87</v>
       </c>
@@ -2925,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>88</v>
       </c>
@@ -2942,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>89</v>
       </c>
@@ -2959,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>90</v>
       </c>
@@ -2976,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>91</v>
       </c>
@@ -2993,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>92</v>
       </c>
@@ -3010,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>93</v>
       </c>
@@ -3027,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>94</v>
       </c>
@@ -3044,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>95</v>
       </c>
@@ -3061,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>96</v>
       </c>
@@ -3078,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>97</v>
       </c>
@@ -3095,548 +3714,2045 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="5"/>
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A97" s="15"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="98" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A98" s="15"/>
+      <c r="H94" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="15"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="8"/>
-    </row>
-    <row r="100" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="15"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="15"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A102" s="15"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="15"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="8"/>
-    </row>
-    <row r="104" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="15"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="8"/>
-    </row>
-    <row r="105" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A105" s="15"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A106" s="15"/>
+      <c r="H98" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="15"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A108" s="15"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A109" s="15"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="8"/>
-    </row>
-    <row r="110" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="15"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="15"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="8"/>
-    </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="8"/>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="8"/>
-    </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H119" s="8"/>
-    </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H120" s="8"/>
-    </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H121" s="8"/>
-    </row>
+      <c r="H114" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="19">
+        <f t="shared" ref="H121:H182" si="5">SUM(C121:G121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B3:B32 A25:A29 B57:B84 A57:A60">
-    <cfRule type="cellIs" dxfId="61" priority="220" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B96">
-    <cfRule type="cellIs" dxfId="60" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="269" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85:B92">
+    <cfRule type="cellIs" dxfId="109" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="59" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B6:B10">
-    <cfRule type="cellIs" dxfId="58" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="57" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="196" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="56" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="203" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="55" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="201" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="54" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="200" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="53" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="199" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="52" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="51" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="197" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="50" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="188" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="49" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="195" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="48" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="47" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="193" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="46" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="192" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="45" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="44" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="43" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="42" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="41" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="40" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="39" priority="135" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="38" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="37" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="184" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B52">
+    <cfRule type="cellIs" dxfId="83" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B52">
+    <cfRule type="cellIs" dxfId="82" priority="117" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B56">
+    <cfRule type="cellIs" dxfId="81" priority="113" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B56">
+    <cfRule type="cellIs" dxfId="80" priority="112" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:A1048576">
+    <cfRule type="cellIs" dxfId="79" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A18">
+    <cfRule type="cellIs" dxfId="78" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A10">
+    <cfRule type="cellIs" dxfId="77" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A18">
+    <cfRule type="cellIs" dxfId="76" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A76">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="74" priority="100" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74:A76">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A18">
+    <cfRule type="cellIs" dxfId="72" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A24">
+    <cfRule type="cellIs" dxfId="71" priority="97" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A24">
+    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A29">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A45">
+    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A37">
+    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A45">
+    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:A45">
+    <cfRule type="cellIs" dxfId="65" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A56">
+    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A53">
+    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A60">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:A68">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A76">
+    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A92">
+    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:A84">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:A92">
+    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:A92">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:B122 A115:A119 B147:B174 A147:A150">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:B182">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93 B96:B100">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B170">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="36" priority="132" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="35" priority="131" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B52">
-    <cfRule type="cellIs" dxfId="34" priority="69" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B52">
-    <cfRule type="cellIs" dxfId="33" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B56">
-    <cfRule type="cellIs" dxfId="32" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B56">
-    <cfRule type="cellIs" dxfId="31" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112:A1048576">
-    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A18">
-    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A10">
-    <cfRule type="cellIs" dxfId="28" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A18">
-    <cfRule type="cellIs" dxfId="27" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A76">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A76">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A18">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A29">
-    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A45">
-    <cfRule type="cellIs" dxfId="19" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A37">
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A45">
-    <cfRule type="cellIs" dxfId="17" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A45">
-    <cfRule type="cellIs" dxfId="16" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A56">
-    <cfRule type="cellIs" dxfId="15" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A53">
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
-    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A60">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A68">
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A76">
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A92">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A84">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:A92">
-    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A92">
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A111">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104:A111">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A111">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A103">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B165">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B166">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B168">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B169">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B171">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B174">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B177">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B180">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B182">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123:B142">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123:B142">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B143:B146">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B143:B146">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:A108">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:A100">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106:A108">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A166">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A164:A166">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:A108">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109:A114">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109:A114">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:A119">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:A135">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120:A127">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:A135">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A135">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:A146">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136:A143">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144:A146">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148:A150">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A158">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:A166">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:A182">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:A174">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:A182">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:A182">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-2/atcoder/phase-2-1/atcoder-phase-2-1.xlsx
+++ b/level-2/atcoder/phase-2-1/atcoder-phase-2-1.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AED759-1011-4E47-B8FE-9689A6615D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC3482B-91B7-4EE3-8C02-DEDF08001FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="atcoder level 2.1" sheetId="1" r:id="rId1"/>
+    <sheet name="atcoder 2.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1000,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1017,10 +1028,7 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,7 +1046,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,81 +1055,12 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <fill>
         <patternFill>
@@ -2122,39 +2061,39 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="61" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="15" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="3">
         <f>COUNTA(B3:B778)</f>
         <v>180</v>
@@ -2185,7 +2124,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2202,7 +2141,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2219,7 +2158,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2236,7 +2175,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2253,7 +2192,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2270,7 +2209,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2287,7 +2226,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2304,7 +2243,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2321,24 +2260,24 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2355,7 +2294,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2372,58 +2311,58 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2440,7 +2379,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2457,7 +2396,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2474,7 +2413,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2491,7 +2430,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2508,7 +2447,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2525,41 +2464,41 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2576,24 +2515,24 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2610,7 +2549,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2627,24 +2566,24 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2661,7 +2600,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2678,24 +2617,24 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2712,7 +2651,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2729,92 +2668,92 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2831,7 +2770,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2848,7 +2787,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2865,24 +2804,24 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2899,7 +2838,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -2916,7 +2855,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2933,7 +2872,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2950,7 +2889,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2967,24 +2906,24 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3001,7 +2940,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3018,41 +2957,41 @@
       </c>
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3069,7 +3008,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3086,7 +3025,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3103,7 +3042,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3120,24 +3059,24 @@
       </c>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3154,7 +3093,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3171,58 +3110,58 @@
       </c>
     </row>
     <row r="61" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3239,7 +3178,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3256,7 +3195,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3273,7 +3212,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -3290,7 +3229,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3307,7 +3246,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3324,41 +3263,41 @@
       </c>
     </row>
     <row r="70" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3375,7 +3314,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3392,7 +3331,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3409,7 +3348,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3426,7 +3365,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3443,7 +3382,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3460,7 +3399,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3477,7 +3416,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3494,7 +3433,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3511,24 +3450,24 @@
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3545,7 +3484,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3562,7 +3501,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -3579,7 +3518,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3596,24 +3535,24 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -3630,7 +3569,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3647,7 +3586,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -3664,24 +3603,24 @@
       </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
       <c r="H90" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3698,7 +3637,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -3715,1531 +3654,1531 @@
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="19">
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="19">
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="19">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="19">
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="19">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="19">
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="19">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="19">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="19">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="19">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="19">
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="19">
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="19">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="19">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="19">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="19">
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="19">
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="19">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="19">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="19">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="19">
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="19">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="19">
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="19">
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="19">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="19">
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="19">
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="19">
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="8">
         <f t="shared" ref="H121:H182" si="5">SUM(C121:G121)</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="19">
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="19">
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="19">
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="19">
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="19">
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="19">
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="19">
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="19">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="19">
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="19">
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="19">
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="19">
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="19">
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="19">
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="19">
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="18" t="s">
+      <c r="A137" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="19">
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="19">
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="19">
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="19">
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="19">
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="19">
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="19">
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="19">
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="19">
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="19">
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="19">
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="19">
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="19">
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="19">
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="19">
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="19">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="19">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="19">
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="19">
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="19">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="19">
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="19">
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="19">
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="19">
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="19">
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="19">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="19">
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="19">
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="18" t="s">
+      <c r="A165" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="19">
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="18" t="s">
+      <c r="A166" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="19">
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="18" t="s">
+      <c r="A167" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="19">
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="18" t="s">
+      <c r="A168" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="19">
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="19">
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="19">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="19">
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="19">
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="19">
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="19">
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="18" t="s">
+      <c r="A175" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="19">
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="19">
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="18" t="s">
+      <c r="A177" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="19">
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="18" t="s">
+      <c r="A178" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="19">
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="18" t="s">
+      <c r="A179" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="19">
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="18" t="s">
+      <c r="A180" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="19">
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="19">
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="19">
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5251,508 +5190,8 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B32 A25:A29 B57:B84 A57:A60">
-    <cfRule type="cellIs" dxfId="110" priority="269" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B92">
-    <cfRule type="cellIs" dxfId="109" priority="217" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="108" priority="216" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3 B6:B10">
-    <cfRule type="cellIs" dxfId="107" priority="215" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="106" priority="196" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="105" priority="203" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="104" priority="201" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="103" priority="200" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="102" priority="199" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="101" priority="198" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="100" priority="197" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="99" priority="188" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="98" priority="195" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="97" priority="194" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="96" priority="193" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="95" priority="192" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="94" priority="191" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="93" priority="190" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="92" priority="189" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="91" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="90" priority="186" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="89" priority="185" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="88" priority="184" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B52">
-    <cfRule type="cellIs" dxfId="83" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B52">
-    <cfRule type="cellIs" dxfId="82" priority="117" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B56">
-    <cfRule type="cellIs" dxfId="81" priority="113" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B56">
-    <cfRule type="cellIs" dxfId="80" priority="112" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A183:A1048576">
-    <cfRule type="cellIs" dxfId="79" priority="107" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A18">
-    <cfRule type="cellIs" dxfId="78" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A10">
-    <cfRule type="cellIs" dxfId="77" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A18">
-    <cfRule type="cellIs" dxfId="76" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A76">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="74" priority="100" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A76">
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A18">
-    <cfRule type="cellIs" dxfId="72" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="71" priority="97" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A24">
-    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A29">
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A45">
-    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A37">
-    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A45">
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A45">
-    <cfRule type="cellIs" dxfId="65" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A56">
-    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A53">
-    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A60">
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:A68">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A76">
-    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A92">
-    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A84">
-    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:A92">
-    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A92">
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93:B122 A115:A119 B147:B174 A147:A150">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175:B182">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93 B96:B100">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B170">
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B165">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B166">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B168">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B169">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178">
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B171">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B173">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B174">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B177">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B180">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B182">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123:B142">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123:B142">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B143:B146">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B143:B146">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A108">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A100">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106:A108">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A166">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A164:A166">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101:A108">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A114">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109:A114">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117:A119">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A135">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A127">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133:A135">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:A135">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:A146">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136:A143">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144:A146">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A148:A150">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A158">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:A166">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A167:A182">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A167:A174">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:A182">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:A182">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
